--- a/_notes_/feats to remove.xlsx
+++ b/_notes_/feats to remove.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="182">
   <si>
     <t>Number</t>
   </si>
@@ -2024,10 +2024,10 @@
   <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F113" sqref="F113"/>
+      <selection pane="bottomRight" activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3323,6 +3323,9 @@
         <f>SUM(E63-F63)</f>
         <v>55586</v>
       </c>
+      <c r="H63" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="13" t="s">
